--- a/medicine/Pharmacie/1685_en_santé_et_médecine/1685_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1685_en_santé_et_médecine/1685_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1685_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1685_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1685 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1685_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1685_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-L’hôpital Saint-Jacques de Besançon devient hôpital général par décision de Louis XIV[1].
+L’hôpital Saint-Jacques de Besançon devient hôpital général par décision de Louis XIV.
 Angleterre
 2 février : Charles II (roi d'Angleterre) est victime d'une crise d'apoplexie et meurt 4 jours plus tard.
-50 % de la population de l’Angleterre a moins de 20 ans[2].</t>
+50 % de la population de l’Angleterre a moins de 20 ans.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1685_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1685_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Publication posthume du livre de Marie de Maupeou (1590-1681) intitulé Les remèdes charitables de Madame Fouquet, pour guérir à peu de frais toute forme de maux tant internes qu'externes, invéterez, &amp; qui ont passé jusques à présent pour incurables, experimentez par la même dame : et augmentez de la méthode que l'on pratique à l'Hôtel des Invalides pour guérir les soldats de la vérole, Lyon, chez Jean Certe, 1685, 1re éd. (lire en ligne sur Gallica).</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1685_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1685_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +591,19 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>30 avril : Hermann Friedrich Teichmeyer (mort en 1746), médecin allemand.
 18 juillet :
 Jean-Claude-Adrien Helvétius (mort en 1755), médecin français, membre de l'Académie royale des sciences.
-Antonio Celestino Cocchi (it) (mort en 1747), médecin, botaniste et écrivain[3].
+Antonio Celestino Cocchi (it) (mort en 1747), médecin, botaniste et écrivain.
 9 août : Claude-Joseph Geoffroy (mort en 1752), maître apothicaire, botaniste et chimiste français.
-24 octobre : Charles Alston (mort en 1760), médecin et botaniste britannique[4].
+24 octobre : Charles Alston (mort en 1760), médecin et botaniste britannique.
 Naissances en 1685 sans précision :
-Antonio Benevoli (it) (mort en 1756), médecin italien et archiatre d'Innocent XIII[5].
-Joshua Ward (en) (mort en 1761), médecin anglais[6].</t>
+Antonio Benevoli (it) (mort en 1756), médecin italien et archiatre d'Innocent XIII.
+Joshua Ward (en) (mort en 1761), médecin anglais.</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1685_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1685_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,10 +631,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>25 décembre : Jacob Spon (né en 1647), médecin, archéologue et érudit français.
-23 juillet : Armand-Jean de Mauvillain (né en 1620), médecin et ami de Molière[7].
+23 juillet : Armand-Jean de Mauvillain (né en 1620), médecin et ami de Molière.
 Décès en 1685 sans précision :
 Samuel Cottereau du Clos (né en 1598), chimiste français, médecin de Louis XIV.</t>
         </is>
